--- a/STM32F4/attitude_pid_960.xlsx
+++ b/STM32F4/attitude_pid_960.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jngeun\Desktop\KUAV\STM32F4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458137D4-4882-4684-A458-C76761BB83E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A209B808-6990-442A-99F1-96B8AD3ABC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>outer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,11 +51,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tracking전혀 안됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overshoot 없음, 잔 진동 살짝 있음</t>
+    <t>발산은 없으나 바람에 의해 많이 기울었다가 돌아옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 많이 기울었다가 안 돌아옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기울었다가 돌아옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아예 돌아오지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발산되서 이륙도 못함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,103 +399,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.8</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.8</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1.8</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3.5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.8</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
